--- a/文档/主要功能.xlsx
+++ b/文档/主要功能.xlsx
@@ -1,48 +1,383 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="主要思路" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +385,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -72,6 +699,536 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="885825" y="4638675"/>
+          <a:ext cx="438150" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>APP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2460625" y="4594225"/>
+          <a:ext cx="1570355" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>智能设备（监控类）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>490855</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4406900" y="4578350"/>
+          <a:ext cx="1570355" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>智能设备（处理类）</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5946775" y="2146300"/>
+          <a:ext cx="438150" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>APP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -355,50 +1512,579 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:L37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>